--- a/data_auto.xlsx
+++ b/data_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26055C19-861C-4A34-AC90-ABCF9DB845EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B618FE3-0021-4EC8-9970-5441153C9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,13 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,13 +243,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,13 +534,13 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M33"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
     <col min="3" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="8" width="21.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
@@ -561,10 +551,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -602,28 +592,28 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0.5</v>
       </c>
       <c r="C3" s="1" t="str">
@@ -632,23 +622,23 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>960</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>910</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>0.5</v>
       </c>
       <c r="C4" s="1" t="str">
@@ -657,46 +647,46 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>880</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>550</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1040</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>550</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.5</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>A3</f>
         <v>Chocks_Front</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="str">
@@ -707,19 +697,19 @@
         <f t="shared" ref="D6:D11" si="1">A$4</f>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="str">
@@ -730,15 +720,15 @@
         <f t="shared" si="1"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -749,15 +739,15 @@
         <f t="shared" si="1"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -768,15 +758,15 @@
         <f t="shared" si="1"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -787,23 +777,19 @@
         <f t="shared" si="1"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I10" s="3">
-        <v>950</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -814,19 +800,19 @@
         <f t="shared" si="1"/>
         <v>Chocks_Rear</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>1.5</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -834,19 +820,19 @@
         <v>Chocks_Rear</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="str">
@@ -855,23 +841,23 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>900</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>320</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="str">
@@ -880,44 +866,44 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1052</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>902</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>A8</f>
         <v>Connect_LDL_Front</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
-        <v>756</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="J15" s="2">
+        <v>825</v>
+      </c>
+      <c r="M15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -925,55 +911,55 @@
         <v>Deboard</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>960</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>560</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="M16" s="3">
+      <c r="K16" s="2"/>
+      <c r="M16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>A14</f>
         <v>Deboard</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>A14</f>
         <v>Deboard</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="str">
@@ -981,60 +967,56 @@
         <v>Deboard</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="I19" s="3">
-        <v>1380</v>
-      </c>
-      <c r="J19" s="3">
-        <v>180</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="M19" s="3">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>A11</f>
         <v>Refuel_Prep</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>A13</f>
         <v>Offload_Rear</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>320</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -1046,22 +1028,22 @@
         <v>Catering_Rear</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>960</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>560</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="M22" s="3">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -1069,38 +1051,38 @@
         <v>Offload_Front</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
-        <v>756</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3">
+      <c r="J23" s="2">
+        <v>825</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>A20</f>
         <v>Refuel</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="str">
@@ -1114,45 +1096,45 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>1052</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>902</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="M25" s="3">
+      <c r="K25" s="2"/>
+      <c r="M25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>A25</f>
         <v>Boarding</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>960</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>560</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>0.5</v>
       </c>
       <c r="C27" s="1" t="str">
@@ -1175,56 +1157,52 @@
         <f>A19</f>
         <v>Toilet_Service</v>
       </c>
-      <c r="I27" s="3">
-        <v>960</v>
-      </c>
-      <c r="J27" s="3">
-        <v>910</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>0.5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>0.5</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -1235,48 +1213,48 @@
         <v>42</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="M29" s="3">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>A21</f>
         <v>Load_Rear</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>A23</f>
         <v>Load_Front</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="str">
@@ -1294,22 +1272,22 @@
         <f>A26</f>
         <v>Flight_Closure</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>960</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>970</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="M32" s="3">
+      <c r="K32" s="2"/>
+      <c r="M32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="str">
@@ -1318,7 +1296,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data_auto.xlsx
+++ b/data_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B618FE3-0021-4EC8-9970-5441153C9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E06099-1A8B-4383-8367-32F4A4DF5339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>A14</f>
@@ -943,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>A14</f>

--- a/data_auto.xlsx
+++ b/data_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E06099-1A8B-4383-8367-32F4A4DF5339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F43854-BC96-45DF-966F-491BB52B958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3864" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Flight_Closure</t>
   </si>
   <si>
-    <t>PDCS</t>
-  </si>
-  <si>
     <t>Location Y</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Dependency 6</t>
+  </si>
+  <si>
+    <t>PDC</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,28 +567,28 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -611,10 +611,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>A2</f>
@@ -636,10 +636,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>A3</f>
@@ -684,10 +684,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.5</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ref="C6:C11" si="0">A$5</f>
@@ -707,10 +707,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -726,10 +726,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.5</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -787,10 +787,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -830,10 +830,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>A7</f>
@@ -841,12 +841,8 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="I13" s="2">
-        <v>900</v>
-      </c>
-      <c r="J13" s="2">
-        <v>320</v>
-      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2">
@@ -880,7 +876,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>12</v>
@@ -889,12 +885,8 @@
         <f>A8</f>
         <v>Connect_LDL_Front</v>
       </c>
-      <c r="I15" s="2">
-        <v>900</v>
-      </c>
-      <c r="J15" s="2">
-        <v>825</v>
-      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="M15" s="2">
         <v>0</v>
       </c>
@@ -924,10 +916,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>A14</f>
@@ -940,10 +932,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>A14</f>
@@ -959,8 +951,8 @@
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4">
-        <v>3</v>
+      <c r="B19" s="6">
+        <v>3.5</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>A14</f>
@@ -979,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>A11</f>
@@ -991,21 +983,17 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>A13</f>
         <v>Offload_Rear</v>
       </c>
-      <c r="I21" s="2">
-        <v>900</v>
-      </c>
-      <c r="J21" s="2">
-        <v>320</v>
-      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2">
@@ -1014,7 +1002,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -1041,22 +1029,18 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>A15</f>
         <v>Offload_Front</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="I23" s="2">
-        <v>900</v>
-      </c>
-      <c r="J23" s="2">
-        <v>825</v>
-      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2">
         <v>0</v>
@@ -1064,10 +1048,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>A20</f>
@@ -1167,13 +1151,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6">
         <v>0.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
@@ -1182,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>14</v>
@@ -1200,7 +1184,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6">
         <v>0.5</v>
@@ -1210,7 +1194,7 @@
         <v>Remove_GPU</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1"/>
       <c r="I29" s="2"/>
@@ -1222,10 +1206,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.5</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>A21</f>
@@ -1237,10 +1221,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.5</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>A23</f>
@@ -1252,7 +1236,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
@@ -1266,7 +1250,7 @@
         <v>Remove_LDL_Rear</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1" t="str">
         <f>A26</f>
@@ -1292,7 +1276,7 @@
       </c>
       <c r="C33" s="1" t="str">
         <f>A32</f>
-        <v>PDCS</v>
+        <v>PDC</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
